--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>2021-11-24</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>AntalOmikron</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -440,8 +443,11 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +457,12 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>100*C2/B2</f>
+        <v>2.6946914578280787E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,8 +472,12 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="0">100*C3/B3</f>
+        <v>5.1572975760701391E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +487,12 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.15048908954100829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,8 +502,12 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7.6550140341923964E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,8 +517,12 @@
       <c r="C6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.28683181225554105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -506,72 +532,122 @@
       <c r="C7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.24984384759525297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5106</v>
+        <v>5181</v>
       </c>
       <c r="C8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.46323103647944414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4161</v>
+        <v>4267</v>
       </c>
       <c r="C9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.8045465198031403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4264</v>
+        <v>4294</v>
       </c>
       <c r="C10">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.4438751746623195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3712</v>
+        <v>4946</v>
       </c>
       <c r="C11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.5163768701981399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4992</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.203525641025641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3544</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.1038374717832955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>232</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.3103448275862073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">100*C3/B3</f>
+        <f t="shared" ref="D3:D15" si="0">100*C3/B3</f>
         <v>5.1572975760701391E-2</v>
       </c>
     </row>
@@ -602,14 +602,14 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4992</v>
+        <v>5016</v>
       </c>
       <c r="C12">
         <v>110</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.203525641025641</v>
+        <v>2.192982456140351</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,14 +617,14 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3544</v>
+        <v>4582</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.1038374717832955</v>
+        <v>3.2736796158882586</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,14 +632,14 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>232</v>
+        <v>4348</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4.3103448275862073</v>
+        <v>4.3468261269549222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,14 +602,14 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5016</v>
+        <v>5089</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.192982456140351</v>
+        <v>2.1811750835134602</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,14 +617,14 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4582</v>
+        <v>4953</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.2736796158882586</v>
+        <v>3.3111245709670905</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,19 +632,29 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4348</v>
+        <v>6692</v>
       </c>
       <c r="C14">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4.3468261269549222</v>
+        <v>4.9611476389719069</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3580</v>
+      </c>
+      <c r="C15">
+        <v>244</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6.8156424581005588</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>2021-11-24</t>
   </si>
@@ -71,27 +71,6 @@
     <t>2021-12-08</t>
   </si>
   <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2021-12-11</t>
-  </si>
-  <si>
-    <t>2021-12-12</t>
-  </si>
-  <si>
-    <t>2021-12-13</t>
-  </si>
-  <si>
-    <t>2021-12-14</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
     <t>Dato</t>
   </si>
   <si>
@@ -102,6 +81,12 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
   </si>
 </sst>
 </file>
@@ -420,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,267 +420,293 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>3711</v>
+        <v>4470</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <f>100*C2/B2</f>
-        <v>2.6946914578280787E-2</v>
+        <v>2.2371364653243849E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>4666</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3878</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">100*C3/B3</f>
-        <v>5.1572975760701391E-2</v>
+        <f t="shared" ref="D3:D18" si="0">100*C3/B3</f>
+        <v>2.1431633090441493E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.15048908954100829</v>
+        <f>100*C4/B4</f>
+        <v>2.5113008538422903E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3919</v>
+        <v>4059</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>7.6550140341923964E-2</v>
+        <v>9.8546440009854644E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3835</v>
+        <v>4114</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.28683181225554105</v>
+        <v>0.17015070491006321</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4803</v>
+        <v>3813</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.24984384759525297</v>
+        <v>7.8678206136900075E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5181</v>
+        <v>3849</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.46323103647944414</v>
+        <v>0.25980774227071968</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>4267</v>
+        <v>5048</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.8045465198031403</v>
+        <v>0.2179080824088748</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>4294</v>
+        <v>5368</v>
       </c>
       <c r="C10">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.4438751746623195</v>
+        <v>0.46572280178837555</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>4946</v>
+        <v>4491</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.5163768701981399</v>
+        <v>1.6922734357604097</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>5089</v>
+        <v>4528</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.1811750835134602</v>
+        <v>1.3250883392226149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>4953</v>
+        <v>5126</v>
       </c>
       <c r="C13">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.3111245709670905</v>
+        <v>1.502145922746781</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>6692</v>
+        <v>5058</v>
       </c>
       <c r="C14">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4.9611476389719069</v>
+        <v>1.9968366943455911</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>3580</v>
+        <v>4768</v>
       </c>
       <c r="C15">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>6.8156424581005588</v>
+        <v>3.5654362416107381</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>7028</v>
+      </c>
+      <c r="C16">
+        <v>356</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.0654524758110417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>7162</v>
+      </c>
+      <c r="C17">
+        <v>581</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8.1122591454900874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18">
+        <v>1759</v>
+      </c>
+      <c r="C18">
+        <v>311</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>17.680500284252417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2021-11-24</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2021-12-08</t>
   </si>
   <si>
     <t>Dato</t>
@@ -408,7 +405,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,21 +417,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>4470</v>
@@ -449,7 +446,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>4666</v>
@@ -545,11 +542,11 @@
         <v>5048</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.2179080824088748</v>
+        <v>0.19809825673534073</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,11 +602,11 @@
         <v>5126</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.502145922746781</v>
+        <v>1.48263753413968</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,11 +632,11 @@
         <v>4768</v>
       </c>
       <c r="C15">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3.5654362416107381</v>
+        <v>3.5864093959731544</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,11 +647,11 @@
         <v>7028</v>
       </c>
       <c r="C16">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5.0654524758110417</v>
+        <v>5.0085372794536145</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,19 +670,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>1759</v>
-      </c>
-      <c r="C18">
-        <v>311</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>17.680500284252417</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>2021-11-24</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A18:D18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">100*C3/B3</f>
+        <f t="shared" ref="D3:D20" si="0">100*C3/B3</f>
         <v>2.1431633090441493E-2</v>
       </c>
     </row>
@@ -509,14 +518,14 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3813</v>
+        <v>3919</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7.8678206136900075E-2</v>
+        <v>7.6550140341923964E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,14 +533,14 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3849</v>
+        <v>3835</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.25980774227071968</v>
+        <v>0.28683181225554105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,14 +548,14 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>5048</v>
+        <v>4803</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.19809825673534073</v>
+        <v>0.24984384759525297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,14 +563,14 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>5368</v>
+        <v>5181</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.46572280178837555</v>
+        <v>0.46323103647944414</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,14 +578,14 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>4491</v>
+        <v>4267</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.6922734357604097</v>
+        <v>1.8045465198031403</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,14 +593,14 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>4528</v>
+        <v>4294</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.3250883392226149</v>
+        <v>1.4438751746623195</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,14 +608,14 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>5126</v>
+        <v>4946</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.48263753413968</v>
+        <v>1.5163768701981399</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,14 +623,14 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>5058</v>
+        <v>5089</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.9968366943455911</v>
+        <v>2.1811750835134602</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,14 +638,14 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>4768</v>
+        <v>4995</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3.5864093959731544</v>
+        <v>3.3433433433433435</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,14 +653,14 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>7028</v>
+        <v>6762</v>
       </c>
       <c r="C16">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5.0085372794536145</v>
+        <v>4.9837326234841761</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,24 +668,60 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>7162</v>
+        <v>7039</v>
       </c>
       <c r="C17">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>8.1122591454900874</v>
+        <v>7.5294786191220346</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>6204</v>
+      </c>
+      <c r="C18">
+        <v>643</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>10.36428110896196</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>4223</v>
+      </c>
+      <c r="C19">
+        <v>501</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>11.863604072933933</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2912</v>
+      </c>
+      <c r="C20">
+        <v>381</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>13.083791208791208</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>2021-11-24</t>
-  </si>
-  <si>
-    <t>2021-11-25</t>
-  </si>
-  <si>
-    <t>2021-11-26</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>2021-11-27</t>
   </si>
@@ -80,12 +71,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>2021-11-22</t>
-  </si>
-  <si>
-    <t>2021-11-23</t>
-  </si>
-  <si>
     <t>2021-12-08</t>
   </si>
   <si>
@@ -93,6 +78,27 @@
   </si>
   <si>
     <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,256 +432,256 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4470</v>
+        <v>4029</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <f>100*C2/B2</f>
-        <v>2.2371364653243849E-2</v>
+        <f t="shared" ref="D2:D22" si="0">100*C2/B2</f>
+        <v>7.4460163812360383E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4666</v>
+        <v>4000</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">100*C3/B3</f>
-        <v>2.1431633090441493E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3982</v>
+        <v>5034</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <f>100*C4/B4</f>
-        <v>2.5113008538422903E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.23837902264600716</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4059</v>
+        <v>5374</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9.8546440009854644E-2</v>
+        <v>0.44659471529586897</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>4114</v>
+        <v>4456</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.17015070491006321</v>
+        <v>1.7280071813285458</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>3919</v>
+        <v>4563</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7.6550140341923964E-2</v>
+        <v>1.3806706114398422</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3835</v>
+        <v>5161</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.28683181225554105</v>
+        <v>1.4919589226894012</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4803</v>
+        <v>5301</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.24984384759525297</v>
+        <v>2.112808903980381</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>5181</v>
+        <v>5176</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.46323103647944414</v>
+        <v>3.2650695517774344</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4267</v>
+        <v>7115</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.8045465198031403</v>
+        <v>4.9894588896697121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>4294</v>
+        <v>7316</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>552</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.4438751746623195</v>
+        <v>7.5451066156369597</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4946</v>
+        <v>6575</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>691</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.5163768701981399</v>
+        <v>10.509505703422054</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>5089</v>
+        <v>6536</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>750</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2.1811750835134602</v>
+        <v>11.474908200734394</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>4995</v>
+        <v>6823</v>
       </c>
       <c r="C15">
-        <v>167</v>
+        <v>897</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3.3433433433433435</v>
+        <v>13.146709658507987</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6762</v>
+        <v>6661</v>
       </c>
       <c r="C16">
-        <v>337</v>
+        <v>1113</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>4.9837326234841761</v>
+        <v>16.709202822399039</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>7039</v>
+        <v>7048</v>
       </c>
       <c r="C17">
-        <v>530</v>
+        <v>1557</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>7.5294786191220346</v>
+        <v>22.091373439273553</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,14 +689,14 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6204</v>
+        <v>9864</v>
       </c>
       <c r="C18">
-        <v>643</v>
+        <v>2863</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>10.36428110896196</v>
+        <v>29.024736415247364</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,14 +704,14 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>4223</v>
+        <v>11220</v>
       </c>
       <c r="C19">
-        <v>501</v>
+        <v>4372</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>11.863604072933933</v>
+        <v>38.96613190730838</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,21 +719,45 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2912</v>
+        <v>10981</v>
       </c>
       <c r="C20">
-        <v>381</v>
+        <v>5095</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>13.083791208791208</v>
+        <v>46.398324378471905</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>7605</v>
+      </c>
+      <c r="C21">
+        <v>3480</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>45.759368836291912</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>3770</v>
+      </c>
+      <c r="C22">
+        <v>1632</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>43.289124668435015</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/DanskeData/Omikron.xlsx
+++ b/DanskeData/Omikron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>2021-11-27</t>
   </si>
@@ -99,6 +99,102 @@
   </si>
   <si>
     <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>OmikronKMA</t>
+  </si>
+  <si>
+    <t>OmikronTCDK</t>
+  </si>
+  <si>
+    <t>AntalOmikronOldManuelt</t>
+  </si>
+  <si>
+    <t>AntalTestTotal</t>
+  </si>
+  <si>
+    <t>AntalOmikronTotal</t>
+  </si>
+  <si>
+    <t>RatioTotal</t>
   </si>
 </sst>
 </file>
@@ -134,9 +230,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,20 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -443,332 +541,1603 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>4029</v>
+        <v>130</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>100*C2/B2</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="E2">
+        <v>3693</v>
+      </c>
+      <c r="F2">
+        <f>H2+I2</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>100*F2/E2</f>
+        <v>5.4156512320606552E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>197</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D48" si="0">100*C3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4514</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F48" si="1">H3+I3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="2">100*F3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>231</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4718</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>3505</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4034</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3658</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4106</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>3703</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4164</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.4015369836695485E-2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3637</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.4990376684080286E-2</v>
+      </c>
+      <c r="E8">
+        <v>3853</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5.1907604464053986E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D22" si="0">100*C2/B2</f>
-        <v>7.4460163812360383E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>4000</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
+        <v>3581</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.25132644512705948</v>
+      </c>
+      <c r="E9">
+        <v>3892</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.23124357656731759</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
         <v>11</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>5034</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
+        <v>4534</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.24261138067931187</v>
+      </c>
+      <c r="E10">
+        <v>5098</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.2157708905453119</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2">
         <v>12</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.23837902264600716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>5374</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
+        <v>4887</v>
+      </c>
+      <c r="C11">
         <v>24</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.44659471529586897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.49109883364027013</v>
+      </c>
+      <c r="E11">
+        <v>5426</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.47917434574272022</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4456</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
+        <v>4023</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.8891374596072583</v>
+      </c>
+      <c r="E12">
+        <v>4554</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.6688625384277558</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2">
         <v>77</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.7280071813285458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>4563</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
+        <v>4013</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.4203837528033889</v>
+      </c>
+      <c r="E13">
+        <v>4595</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.2840043525571274</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+      <c r="J13" s="2">
         <v>63</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.3806706114398422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5161</v>
-      </c>
-      <c r="C8">
+      <c r="B14">
+        <v>4626</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.5996541288370083</v>
+      </c>
+      <c r="E14">
+        <v>5182</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.5438054805094559</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>74</v>
+      </c>
+      <c r="J14" s="2">
         <v>77</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.4919589226894012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>5301</v>
-      </c>
-      <c r="C9">
+      <c r="B15">
+        <v>4730</v>
+      </c>
+      <c r="C15">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.2621564482029597</v>
+      </c>
+      <c r="E15">
+        <v>5107</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.1147444683767378</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>107</v>
+      </c>
+      <c r="J15" s="2">
         <v>112</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.112808903980381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>5176</v>
-      </c>
-      <c r="C10">
+      <c r="B16">
+        <v>4467</v>
+      </c>
+      <c r="C16">
+        <v>158</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.5370494739198568</v>
+      </c>
+      <c r="E16">
+        <v>4809</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.4518610937824912</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>158</v>
+      </c>
+      <c r="J16" s="2">
         <v>169</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>3.2650695517774344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>7115</v>
-      </c>
-      <c r="C11">
+      <c r="B17">
+        <v>6416</v>
+      </c>
+      <c r="C17">
+        <v>325</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5.0654613466334162</v>
+      </c>
+      <c r="E17">
+        <v>7117</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.8053955318252068</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>325</v>
+      </c>
+      <c r="J17" s="2">
         <v>355</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>4.9894588896697121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>7316</v>
-      </c>
-      <c r="C12">
+      <c r="B18">
+        <v>6558</v>
+      </c>
+      <c r="C18">
+        <v>502</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7.6547727965843242</v>
+      </c>
+      <c r="E18">
+        <v>7354</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>7.8324721240141422</v>
+      </c>
+      <c r="H18">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>502</v>
+      </c>
+      <c r="J18" s="2">
         <v>552</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>7.5451066156369597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>6575</v>
-      </c>
-      <c r="C13">
+      <c r="B19">
+        <v>5921</v>
+      </c>
+      <c r="C19">
+        <v>632</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>10.673872656645838</v>
+      </c>
+      <c r="E19">
+        <v>6696</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>707</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>10.558542413381122</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>632</v>
+      </c>
+      <c r="J19" s="2">
         <v>691</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>10.509505703422054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>6536</v>
-      </c>
-      <c r="C14">
+      <c r="B20">
+        <v>5904</v>
+      </c>
+      <c r="C20">
+        <v>689</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>11.670054200542005</v>
+      </c>
+      <c r="E20">
+        <v>6669</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>11.755885440095966</v>
+      </c>
+      <c r="H20">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>689</v>
+      </c>
+      <c r="J20" s="2">
         <v>750</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>11.474908200734394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>6823</v>
-      </c>
-      <c r="C15">
+      <c r="B21">
+        <v>6060</v>
+      </c>
+      <c r="C21">
+        <v>802</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>13.234323432343235</v>
+      </c>
+      <c r="E21">
+        <v>6961</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>12.728056313748025</v>
+      </c>
+      <c r="H21">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>802</v>
+      </c>
+      <c r="J21" s="2">
         <v>897</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>13.146709658507987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>6661</v>
-      </c>
-      <c r="C16">
+      <c r="B22">
+        <v>6097</v>
+      </c>
+      <c r="C22">
+        <v>1053</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>17.270788912579956</v>
+      </c>
+      <c r="E22">
+        <v>6716</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1108</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>16.497915425848721</v>
+      </c>
+      <c r="H22">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>1053</v>
+      </c>
+      <c r="J22" s="2">
         <v>1113</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>16.709202822399039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>7048</v>
-      </c>
-      <c r="C17">
+      <c r="B23">
+        <v>6371</v>
+      </c>
+      <c r="C23">
+        <v>1484</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>23.29304661748548</v>
+      </c>
+      <c r="E23">
+        <v>7168</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1556</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>21.707589285714285</v>
+      </c>
+      <c r="H23">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>1484</v>
+      </c>
+      <c r="J23" s="2">
         <v>1557</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>22.091373439273553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>9864</v>
-      </c>
-      <c r="C18">
+      <c r="B24">
+        <v>8874</v>
+      </c>
+      <c r="C24">
+        <v>2626</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>29.592066711742167</v>
+      </c>
+      <c r="E24">
+        <v>10625</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2906</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>27.350588235294119</v>
+      </c>
+      <c r="H24">
+        <v>280</v>
+      </c>
+      <c r="I24">
+        <v>2626</v>
+      </c>
+      <c r="J24" s="2">
         <v>2863</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>29.024736415247364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>11220</v>
-      </c>
-      <c r="C19">
+      <c r="B25">
+        <v>9981</v>
+      </c>
+      <c r="C25">
+        <v>3963</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>39.705440336639619</v>
+      </c>
+      <c r="E25">
+        <v>11540</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4382</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>37.972270363951473</v>
+      </c>
+      <c r="H25">
+        <v>419</v>
+      </c>
+      <c r="I25">
+        <v>3963</v>
+      </c>
+      <c r="J25" s="2">
         <v>4372</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>38.96613190730838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>10981</v>
-      </c>
-      <c r="C20">
+      <c r="B26">
+        <v>9860</v>
+      </c>
+      <c r="C26">
+        <v>4658</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>47.241379310344826</v>
+      </c>
+      <c r="E26">
+        <v>11236</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>5078</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>45.194019223923107</v>
+      </c>
+      <c r="H26">
+        <v>420</v>
+      </c>
+      <c r="I26">
+        <v>4658</v>
+      </c>
+      <c r="J26" s="2">
         <v>5095</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>46.398324378471905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>7605</v>
-      </c>
-      <c r="C21">
+      <c r="B27">
+        <v>8952</v>
+      </c>
+      <c r="C27">
+        <v>4273</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>47.732350312779268</v>
+      </c>
+      <c r="E27">
+        <v>10603</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4744</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>44.742054135621991</v>
+      </c>
+      <c r="H27">
+        <v>471</v>
+      </c>
+      <c r="I27">
+        <v>4273</v>
+      </c>
+      <c r="J27" s="2">
         <v>3480</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>45.759368836291912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>3770</v>
-      </c>
-      <c r="C22">
+      <c r="B28">
+        <v>9312</v>
+      </c>
+      <c r="C28">
+        <v>4999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>53.683419243986258</v>
+      </c>
+      <c r="E28">
+        <v>11075</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>5401</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>48.767494356659142</v>
+      </c>
+      <c r="H28">
+        <v>402</v>
+      </c>
+      <c r="I28">
+        <v>4999</v>
+      </c>
+      <c r="J28" s="2">
         <v>1632</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>43.289124668435015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>8559</v>
+      </c>
+      <c r="C29">
+        <v>4889</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>57.121159013903494</v>
+      </c>
+      <c r="E29">
+        <v>10465</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5065</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>48.399426660296228</v>
+      </c>
+      <c r="H29">
+        <v>176</v>
+      </c>
+      <c r="I29">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>7343</v>
+      </c>
+      <c r="C30">
+        <v>4625</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>62.985155930818465</v>
+      </c>
+      <c r="E30">
+        <v>10641</v>
+      </c>
+      <c r="F30">
+        <f>H30+I30</f>
+        <v>4738</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>44.525890423832344</v>
+      </c>
+      <c r="H30">
+        <v>113</v>
+      </c>
+      <c r="I30">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2551</v>
+      </c>
+      <c r="C31">
+        <v>1635</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>64.092512740101924</v>
+      </c>
+      <c r="E31">
+        <v>13954</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1785</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>12.792030958864842</v>
+      </c>
+      <c r="H31">
+        <v>150</v>
+      </c>
+      <c r="I31">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>3105</v>
+      </c>
+      <c r="C32">
+        <v>2373</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>76.425120772946855</v>
+      </c>
+      <c r="E32">
+        <v>13723</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2474</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>18.028127960358521</v>
+      </c>
+      <c r="H32">
+        <v>101</v>
+      </c>
+      <c r="I32">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1330</v>
+      </c>
+      <c r="C33">
+        <v>1049</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>78.872180451127818</v>
+      </c>
+      <c r="E33">
+        <v>12300</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>9.2682926829268286</v>
+      </c>
+      <c r="H33">
+        <v>91</v>
+      </c>
+      <c r="I33">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>3313</v>
+      </c>
+      <c r="C34">
+        <v>2629</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>79.354059764563843</v>
+      </c>
+      <c r="E34">
+        <v>13298</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2692</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>20.243645661001654</v>
+      </c>
+      <c r="H34">
+        <v>63</v>
+      </c>
+      <c r="I34">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>610</v>
+      </c>
+      <c r="C35">
+        <v>511</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>83.770491803278688</v>
+      </c>
+      <c r="E35">
+        <v>7427</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>7.7420223508819177</v>
+      </c>
+      <c r="H35">
+        <v>64</v>
+      </c>
+      <c r="I35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>877</v>
+      </c>
+      <c r="C36">
+        <v>691</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>78.791334093500566</v>
+      </c>
+      <c r="E36">
+        <v>8265</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>785</v>
+      </c>
+      <c r="G36">
+        <f>100*F36/E36</f>
+        <v>9.497882637628555</v>
+      </c>
+      <c r="H36">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>2209</v>
+      </c>
+      <c r="C37">
+        <v>1913</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>86.60027161611589</v>
+      </c>
+      <c r="E37">
+        <v>11569</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>17.34808540063964</v>
+      </c>
+      <c r="H37">
+        <v>94</v>
+      </c>
+      <c r="I37">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>4550</v>
+      </c>
+      <c r="C38">
+        <v>4061</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>89.252747252747255</v>
+      </c>
+      <c r="E38">
+        <v>24018</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>4190</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>17.445249396286119</v>
+      </c>
+      <c r="H38">
+        <v>129</v>
+      </c>
+      <c r="I38">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>1490</v>
+      </c>
+      <c r="C39">
+        <v>1343</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>90.134228187919462</v>
+      </c>
+      <c r="E39">
+        <v>23326</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1429</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>6.1262110949155453</v>
+      </c>
+      <c r="H39">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>403</v>
+      </c>
+      <c r="C40">
+        <v>372</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="E40">
+        <v>18376</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2.4923813670004353</v>
+      </c>
+      <c r="H40">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>945</v>
+      </c>
+      <c r="C41">
+        <v>856</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>90.582010582010582</v>
+      </c>
+      <c r="E41">
+        <v>20474</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>927</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>4.5276936602520266</v>
+      </c>
+      <c r="H41">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>431</v>
+      </c>
+      <c r="C42">
+        <v>396</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>91.879350348027842</v>
+      </c>
+      <c r="E42">
+        <v>10288</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>4.4615085536547436</v>
+      </c>
+      <c r="H42">
+        <v>63</v>
+      </c>
+      <c r="I42">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>409</v>
+      </c>
+      <c r="C43">
+        <v>386</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>94.376528117359413</v>
+      </c>
+      <c r="E43">
+        <v>9219</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>4.9680008677730774</v>
+      </c>
+      <c r="H43">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>6021</v>
+      </c>
+      <c r="C44">
+        <v>5729</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>95.150307257930578</v>
+      </c>
+      <c r="E44">
+        <v>21490</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>5827</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>27.114937180083761</v>
+      </c>
+      <c r="H44">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>2264</v>
+      </c>
+      <c r="C45">
+        <v>2169</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>95.803886925795055</v>
+      </c>
+      <c r="E45">
+        <v>27715</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2274</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>8.2049431715677432</v>
+      </c>
+      <c r="H45">
+        <v>105</v>
+      </c>
+      <c r="I45">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>129</v>
+      </c>
+      <c r="C46">
+        <v>120</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="E46">
+        <v>25827</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0.79761489913656247</v>
+      </c>
+      <c r="H46">
+        <v>86</v>
+      </c>
+      <c r="I46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>19131</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0.25612879619465789</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>8030</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0.16189290161892902</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>